--- a/Navigation_URLs_TC24.xlsx
+++ b/Navigation_URLs_TC24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://suffolkconstruction-my.sharepoint.com/personal/tlondergan_suffolk_com/Documents/Documents/Ops Data/Project Dashboard/Tableau/TC24/Data Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{C82EC950-74F8-4610-BFD9-4BE973256BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCDCDF4B-16AA-4EDB-93DB-E0252C4E34CD}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{C82EC950-74F8-4610-BFD9-4BE973256BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE37027A-7A71-4045-97B1-35C39195EEAB}"/>
   <bookViews>
     <workbookView xWindow="6180" yWindow="2445" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -955,7 +955,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
